--- a/test_data/cai/external/创建帐套测试数据.xlsx
+++ b/test_data/cai/external/创建帐套测试数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2800" yWindow="-18920" windowWidth="24960" windowHeight="14320" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="-3280" yWindow="-20100" windowWidth="24960" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="创建帐套测试数据" sheetId="1" r:id="rId1"/>
@@ -614,10 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建成功</t>
     <rPh sb="0" eb="1">
       <t>chuang jian</t>
@@ -625,6 +621,10 @@
     <rPh sb="2" eb="3">
       <t>cheng gong</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -644,11 +644,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>八月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成立日期／月（一月、二月、三月...）7</t>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期／月（1,2,3...）7</t>
     <rPh sb="0" eb="1">
       <t>cheng li</t>
     </rPh>
@@ -656,18 +656,6 @@
       <t>ri qi</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yi yue</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>er yue</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>san yue</t>
-    </rPh>
-    <rPh sb="14" eb="15">
       <t>yue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,9 +665,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -773,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -788,7 +773,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1084,7 +1068,7 @@
     <col min="7" max="7" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="27.5" style="2" bestFit="1" customWidth="1"/>
@@ -1178,17 +1162,17 @@
         <v>45</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>8</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>46</v>
@@ -1221,7 +1205,7 @@
         <v>42</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>43</v>
@@ -1239,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>8</v>
       </c>
       <c r="G3" s="10"/>
@@ -1280,7 +1264,7 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>8</v>
       </c>
       <c r="G4" s="10"/>
@@ -1323,7 +1307,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>8</v>
       </c>
       <c r="G5" s="10"/>
@@ -1366,7 +1350,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>8</v>
       </c>
       <c r="G6" s="11"/>
